--- a/data/Calibration/Processed/Import to GDP_2019.xlsx
+++ b/data/Calibration/Processed/Import to GDP_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricks\Dropbox\PC\Desktop\University of Wisconsin-Madison\Research\RA with Alder\clusters\data\Calibration\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E542AA2-9971-4A19-8824-CC3FCFEBEDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176D534-E26D-4606-9A13-6022B33C14D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3360" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21120" yWindow="6390" windowWidth="28800" windowHeight="15705" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Import_raw" sheetId="9" r:id="rId4"/>
     <sheet name="Import_clean" sheetId="10" r:id="rId5"/>
     <sheet name="2019_final" sheetId="4" r:id="rId6"/>
+    <sheet name="Manual calibration" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="399">
   <si>
     <t>Private industries</t>
   </si>
@@ -1084,16 +1085,170 @@
   </si>
   <si>
     <t>import(millions)</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>z_H_A</t>
+  </si>
+  <si>
+    <t>z_H_M</t>
+  </si>
+  <si>
+    <t>z_H_S</t>
+  </si>
+  <si>
+    <t>z_H_O</t>
+  </si>
+  <si>
+    <t>Parameter Values</t>
+  </si>
+  <si>
+    <t>Target Results</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Round 3</t>
+  </si>
+  <si>
+    <t>Round 4</t>
+  </si>
+  <si>
+    <t>Round 5</t>
+  </si>
+  <si>
+    <t>Round 6</t>
+  </si>
+  <si>
+    <t>Round 7</t>
+  </si>
+  <si>
+    <t>Round 8</t>
+  </si>
+  <si>
+    <t>Round 9</t>
+  </si>
+  <si>
+    <t>Round 10</t>
+  </si>
+  <si>
+    <t>Round 11</t>
+  </si>
+  <si>
+    <t>z_F</t>
+  </si>
+  <si>
+    <t>Round 12</t>
+  </si>
+  <si>
+    <t>Round 13</t>
+  </si>
+  <si>
+    <t>Round 14</t>
+  </si>
+  <si>
+    <t>Round 15</t>
+  </si>
+  <si>
+    <t>Round 16</t>
+  </si>
+  <si>
+    <t>Round 17</t>
+  </si>
+  <si>
+    <t>Round 18</t>
+  </si>
+  <si>
+    <t>Round 19</t>
+  </si>
+  <si>
+    <t>Round 20</t>
+  </si>
+  <si>
+    <t>Round 21</t>
+  </si>
+  <si>
+    <t>Round 22</t>
+  </si>
+  <si>
+    <t>Round 23</t>
+  </si>
+  <si>
+    <t>Round 24</t>
+  </si>
+  <si>
+    <t>Round 25</t>
+  </si>
+  <si>
+    <t>Round 26</t>
+  </si>
+  <si>
+    <t>Round 27</t>
+  </si>
+  <si>
+    <t>Round 28</t>
+  </si>
+  <si>
+    <t>Round 29</t>
+  </si>
+  <si>
+    <t>Round 30</t>
+  </si>
+  <si>
+    <t>Round 31</t>
+  </si>
+  <si>
+    <t>Round 32</t>
+  </si>
+  <si>
+    <t>Round 33</t>
+  </si>
+  <si>
+    <t>Round 34</t>
+  </si>
+  <si>
+    <t>Round 35</t>
+  </si>
+  <si>
+    <t>Round 36</t>
+  </si>
+  <si>
+    <t>Agri Error (abs)</t>
+  </si>
+  <si>
+    <t>Manu Error (abs)</t>
+  </si>
+  <si>
+    <t>Service Error (abs)</t>
+  </si>
+  <si>
+    <t>Total Error (abs)</t>
+  </si>
+  <si>
+    <t>Others Error (abs)</t>
+  </si>
+  <si>
+    <t>Sum of Sq (abs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,8 +1323,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1368,21 @@
       <patternFill patternType="solid">
         <fgColor indexed="56"/>
         <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1213,7 +1410,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1223,8 +1420,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1256,9 +1456,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="13" fillId="6" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="11" fillId="4" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
+    <cellStyle name="Bad" xfId="8" builtinId="27"/>
+    <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{4093743E-4342-4EB1-9202-E25FEDA3E609}"/>
     <cellStyle name="Normal 2 2 2" xfId="2" xr:uid="{F9F87F0F-77A2-4FAD-A21F-D1B2DB7F5DA3}"/>
@@ -1266,7 +1476,211 @@
     <cellStyle name="Normal 3" xfId="6" xr:uid="{5F1AF774-096E-4CB6-B80B-3A511118788B}"/>
     <cellStyle name="NormalFootnotes" xfId="4" xr:uid="{BD9C9F6A-569F-4919-AE04-C623765363DA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -26759,13 +27173,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905243A6-531F-46CB-A91F-05AB9D625082}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -26784,7 +27202,7 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -26807,7 +27225,7 @@
         <f>D2/$D$6</f>
         <v>2.1216285950721569E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="25">
         <f>D2/B2</f>
         <v>0.3770049200492005</v>
       </c>
@@ -26831,7 +27249,7 @@
         <f t="shared" ref="E3:E6" si="1">D3/$D$6</f>
         <v>5.0988860074127736E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="25">
         <f t="shared" ref="F3:F6" si="2">D3/B3</f>
         <v>3.7741514025874216E-2</v>
       </c>
@@ -26852,10 +27270,10 @@
         <v>2383.2199999999998</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
+        <f>D4/$D$6</f>
         <v>0.82483282496988053</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="25">
         <f t="shared" si="2"/>
         <v>0.16229272644316872</v>
       </c>
@@ -26879,7 +27297,7 @@
         <f t="shared" si="1"/>
         <v>0.10296202900527007</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="25">
         <f t="shared" si="2"/>
         <v>0.11346860935235334</v>
       </c>
@@ -26903,7 +27321,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="25">
         <f t="shared" si="2"/>
         <v>0.13518883991652864</v>
       </c>
@@ -26912,4 +27330,2076 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EC20E8-EEEA-4D18-822A-1C43B085FCF5}">
+  <dimension ref="A1:AM21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="AJ25" sqref="AJ25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.4609375" customWidth="1"/>
+    <col min="4" max="33" width="9.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S1" t="s">
+        <v>372</v>
+      </c>
+      <c r="T1" t="s">
+        <v>373</v>
+      </c>
+      <c r="U1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V1" t="s">
+        <v>375</v>
+      </c>
+      <c r="W1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>3</v>
+      </c>
+      <c r="N4" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="O4" s="19">
+        <v>4</v>
+      </c>
+      <c r="P4" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="R4" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="S4" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="T4" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="U4" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="V4" s="19">
+        <f>U4/2</f>
+        <v>2.4</v>
+      </c>
+      <c r="W4" s="19">
+        <f>U4*2</f>
+        <v>9.6</v>
+      </c>
+      <c r="X4" s="19">
+        <f>1.3*W4</f>
+        <v>12.48</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>12.48</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>12.48</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>12.48</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>11</v>
+      </c>
+      <c r="AG4" s="19">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="19">
+        <v>11</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" ref="V5:V6" si="0">U5/2</f>
+        <v>0.41</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" ref="W5:W6" si="1">U5*2</f>
+        <v>1.64</v>
+      </c>
+      <c r="X5" s="19">
+        <f t="shared" ref="X5:Y8" si="2">1.3*W5</f>
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>2.5</v>
+      </c>
+      <c r="AG5">
+        <v>2.5</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>1.968</v>
+      </c>
+      <c r="AI5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19">
+        <v>2</v>
+      </c>
+      <c r="S6" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="T6" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="U6" s="20">
+        <v>1.68</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="W6" s="19">
+        <f t="shared" si="1"/>
+        <v>3.36</v>
+      </c>
+      <c r="X6" s="19">
+        <f t="shared" si="2"/>
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G7" s="20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L7" s="20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X7" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AB7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AC7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="AE7" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG7" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="AH7" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" t="s">
+        <v>356</v>
+      </c>
+      <c r="I9" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" t="s">
+        <v>356</v>
+      </c>
+      <c r="M9" t="s">
+        <v>356</v>
+      </c>
+      <c r="N9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P9" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>356</v>
+      </c>
+      <c r="R9" t="s">
+        <v>356</v>
+      </c>
+      <c r="S9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.3770049200492005</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.28571428571716101</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.123899343099346</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.12916561323305101</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.136527060079877</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.122195450640007</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.13017872386235199</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.13086959275916801</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.13242700659041001</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.13285902556347401</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0.161161693802925</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0.164429983957424</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0.17151912663316701</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0.176206068663182</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0.178892469852692</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0.19465785241790901</v>
+      </c>
+      <c r="S10" s="22">
+        <v>0.19048873312453399</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0.189013973848636</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0.190197521231629</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0.14043096516817799</v>
+      </c>
+      <c r="W10" s="23">
+        <v>0.25992984875152803</v>
+      </c>
+      <c r="X10" s="23">
+        <v>0.289581462212956</v>
+      </c>
+      <c r="Y10" s="23">
+        <v>0.3990539063079</v>
+      </c>
+      <c r="Z10" s="23">
+        <v>0.380278808443404</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>0.37637956513731302</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>0.372916128106897</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>0.34439907710145901</v>
+      </c>
+      <c r="AD10" s="22">
+        <v>0.364922843220232</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>0.42424233088195701</v>
+      </c>
+      <c r="AF10" s="22">
+        <v>0.45384273265759001</v>
+      </c>
+      <c r="AG10" s="23">
+        <v>0.42349486808339099</v>
+      </c>
+      <c r="AH10" s="22">
+        <v>0.40988725378166402</v>
+      </c>
+      <c r="AI10" s="22">
+        <v>0.35542376168249201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21">
+        <v>3.7741514025874216E-2</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.28571428571716101</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.123899343099346</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.12916561323305101</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.136527060079877</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.122195450640007</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.13017872386235199</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.13086959275916801</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0.13242700659041001</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0.13285902556347401</v>
+      </c>
+      <c r="M11" s="23">
+        <v>5.3720564600975303E-2</v>
+      </c>
+      <c r="N11" s="23">
+        <v>4.9827267865886198E-2</v>
+      </c>
+      <c r="O11" s="23">
+        <v>4.2879781658291802E-2</v>
+      </c>
+      <c r="P11" s="23">
+        <v>3.91569041473738E-2</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>3.7269264552644198E-2</v>
+      </c>
+      <c r="R11" s="23">
+        <v>4.0553719253731003E-2</v>
+      </c>
+      <c r="S11" s="23">
+        <v>3.9685152734277897E-2</v>
+      </c>
+      <c r="T11" s="23">
+        <v>3.9377911218465803E-2</v>
+      </c>
+      <c r="U11" s="23">
+        <v>3.9624483589922703E-2</v>
+      </c>
+      <c r="V11" s="22">
+        <v>5.8512902153407501E-2</v>
+      </c>
+      <c r="W11" s="22">
+        <v>2.70760259116175E-2</v>
+      </c>
+      <c r="X11" s="22">
+        <v>2.3203642805525299E-2</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>3.1975473261851003E-2</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>3.0471058368862498E-2</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>3.01586190013872E-2</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>3.1076344008908099E-2</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>3.4439907710145899E-2</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>3.64922843220232E-2</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>4.2424233088195699E-2</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>4.1258430241599101E-2</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>3.8499533462126499E-2</v>
+      </c>
+      <c r="AH11" s="22">
+        <v>3.7262477616514897E-2</v>
+      </c>
+      <c r="AI11" s="22">
+        <v>3.8773501274453698E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.16229272644316872</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.28571428571716101</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.123899343099346</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.12916561323305101</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.136527060079877</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.30548862660001802</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.18596960551764599</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.17927341473858599</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.165533758238013</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0.16202320190667599</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0.196538650979178</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.20052437067978501</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0.20916966662581299</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0.21488544958924599</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.218161548600844</v>
+      </c>
+      <c r="R12" s="23">
+        <v>0.23738762489988899</v>
+      </c>
+      <c r="S12" s="23">
+        <v>0.23230333307869999</v>
+      </c>
+      <c r="T12" s="23">
+        <v>0.230504846156873</v>
+      </c>
+      <c r="U12" s="23">
+        <v>0.23194819662393801</v>
+      </c>
+      <c r="V12" s="22">
+        <v>0.34251454919067797</v>
+      </c>
+      <c r="W12" s="22">
+        <v>0.158493810214346</v>
+      </c>
+      <c r="X12" s="22">
+        <v>0.13582620178843999</v>
+      </c>
+      <c r="Y12" s="23">
+        <v>0.18717350202059099</v>
+      </c>
+      <c r="Z12" s="23">
+        <v>0.17836717093968299</v>
+      </c>
+      <c r="AA12" s="23">
+        <v>0.176538257569096</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0.17491375614769999</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>0.16153802865922001</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>0.17116456060986501</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>0.198987960075964</v>
+      </c>
+      <c r="AF12" s="22">
+        <v>0.181537093063036</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>0.16939794723335599</v>
+      </c>
+      <c r="AH12" s="22">
+        <v>0.208276043588244</v>
+      </c>
+      <c r="AI12" s="22">
+        <v>0.17060340560759599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.11346860935235334</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.28571428571716101</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.123899343099346</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.12916561323305101</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.136527060079877</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.122195450640007</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.13017872386235199</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0.13086959275916801</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0.13242700659041001</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.13285902556347401</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0.161161693802925</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0.164429983957424</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0.17151912663316701</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0.176206068663182</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0.178892469852692</v>
+      </c>
+      <c r="R13" s="23">
+        <v>9.7328926208954503E-2</v>
+      </c>
+      <c r="S13" s="23">
+        <v>0.112052195955608</v>
+      </c>
+      <c r="T13" s="23">
+        <v>0.11813373365539701</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0.11321281025692199</v>
+      </c>
+      <c r="V13" s="22">
+        <v>0.16717972043830701</v>
+      </c>
+      <c r="W13" s="22">
+        <v>7.7360074033192894E-2</v>
+      </c>
+      <c r="X13" s="22">
+        <v>7.2395365553238999E-2</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>9.9763476576975096E-2</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>9.5069702110851098E-2</v>
+      </c>
+      <c r="AA13" s="23">
+        <v>9.4094891284328297E-2</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>9.3229032026724196E-2</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>0.114799692367153</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>0.121640947740077</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>0.14141411029398501</v>
+      </c>
+      <c r="AF13" s="22">
+        <v>0.12266019801556401</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>0.11445807245497</v>
+      </c>
+      <c r="AH13" s="22">
+        <v>0.117110643937618</v>
+      </c>
+      <c r="AI13" s="22">
+        <v>0.121859575433997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.13518883991652864</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.28571428571588298</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.12389934309933499</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.12916561323304901</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.136527059939554</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.14838033172005799</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.141530426328279</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.140967854706119</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.13971624198223501</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0.13937305659355001</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0.120100393963906</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.11821753742714999</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0.11433232608388801</v>
+      </c>
+      <c r="P14" s="23">
+        <v>0.11190263435325599</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.110556581257806</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0.10327334414393299</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0.10510333455104701</v>
+      </c>
+      <c r="T14" s="23">
+        <v>0.105766467260742</v>
+      </c>
+      <c r="U14" s="23">
+        <v>0.105233612318022</v>
+      </c>
+      <c r="V14" s="22">
+        <v>0.133625290933752</v>
+      </c>
+      <c r="W14" s="22">
+        <v>8.1195201494872998E-2</v>
+      </c>
+      <c r="X14" s="22">
+        <v>7.4023436317155702E-2</v>
+      </c>
+      <c r="Y14" s="23">
+        <v>0.101215987222618</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>9.6580474490685297E-2</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>9.5616328875641698E-2</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>9.6348225714566096E-2</v>
+      </c>
+      <c r="AC14" s="22">
+        <v>0.102833919437569</v>
+      </c>
+      <c r="AD14" s="22">
+        <v>0.10881820682167</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>0.12603071039821001</v>
+      </c>
+      <c r="AF14" s="22">
+        <v>0.119561359261626</v>
+      </c>
+      <c r="AG14" s="23">
+        <v>0.11177590582028001</v>
+      </c>
+      <c r="AH14" s="22">
+        <v>0.114721888997612</v>
+      </c>
+      <c r="AI14" s="22">
+        <v>0.111144069478282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="22">
+        <f>ABS(D10-$B10)</f>
+        <v>9.1290634332039489E-2</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" ref="E16:AG20" si="3">ABS(E10-$B10)</f>
+        <v>0.25310557694985447</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.24783930681614949</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.2404778599693235</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.25480946940919347</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.24682619618684851</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.24613532729003249</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.24457791345879049</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.24414589448572649</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.2158432262462755</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.2125749360917765</v>
+      </c>
+      <c r="O16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.20548579341603349</v>
+      </c>
+      <c r="P16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.2007988513860185</v>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.1981124501965085</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.18234706763129149</v>
+      </c>
+      <c r="S16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.18651618692466651</v>
+      </c>
+      <c r="T16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.1879909462005645</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.1868073988175715</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.23657395488102251</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.11707507129767247</v>
+      </c>
+      <c r="X16" s="22">
+        <f t="shared" si="3"/>
+        <v>8.74234578362445E-2</v>
+      </c>
+      <c r="Y16" s="22">
+        <f t="shared" si="3"/>
+        <v>2.2048986258699499E-2</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="3"/>
+        <v>3.2738883942035057E-3</v>
+      </c>
+      <c r="AA16" s="22">
+        <f t="shared" si="3"/>
+        <v>6.2535491188747683E-4</v>
+      </c>
+      <c r="AB16" s="22">
+        <f t="shared" si="3"/>
+        <v>4.0887919423034935E-3</v>
+      </c>
+      <c r="AC16" s="22">
+        <f t="shared" si="3"/>
+        <v>3.2605842947741492E-2</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="3"/>
+        <v>1.2082076828968502E-2</v>
+      </c>
+      <c r="AE16" s="22">
+        <f t="shared" si="3"/>
+        <v>4.723741083275651E-2</v>
+      </c>
+      <c r="AF16" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6837812608389511E-2</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" si="3"/>
+        <v>4.6489948034190487E-2</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" ref="AH16:AI16" si="4">ABS(AH10-$B10)</f>
+        <v>3.288233373246352E-2</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="4"/>
+        <v>2.1581158366708486E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" ref="D17:S20" si="5">ABS(D11-$B11)</f>
+        <v>0.24797277169128679</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="5"/>
+        <v>8.6157829073471776E-2</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="5"/>
+        <v>9.1424099207176784E-2</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="5"/>
+        <v>9.8785546054002776E-2</v>
+      </c>
+      <c r="H17" s="22">
+        <f t="shared" si="5"/>
+        <v>8.445393661413278E-2</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="5"/>
+        <v>9.2437209836477768E-2</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="5"/>
+        <v>9.312807873329379E-2</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" si="5"/>
+        <v>9.4685492564535789E-2</v>
+      </c>
+      <c r="L17" s="22">
+        <f t="shared" si="5"/>
+        <v>9.5117511537599786E-2</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="5"/>
+        <v>1.5979050575101086E-2</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="5"/>
+        <v>1.2085753840011981E-2</v>
+      </c>
+      <c r="O17" s="22">
+        <f t="shared" si="5"/>
+        <v>5.1382676324175855E-3</v>
+      </c>
+      <c r="P17" s="22">
+        <f t="shared" si="5"/>
+        <v>1.4153901214995837E-3</v>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" si="5"/>
+        <v>4.7224947323001865E-4</v>
+      </c>
+      <c r="R17" s="22">
+        <f t="shared" si="5"/>
+        <v>2.8122052278567872E-3</v>
+      </c>
+      <c r="S17" s="22">
+        <f t="shared" si="5"/>
+        <v>1.9436387084036805E-3</v>
+      </c>
+      <c r="T17" s="22">
+        <f t="shared" si="3"/>
+        <v>1.6363971925915863E-3</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="3"/>
+        <v>1.8829695640484867E-3</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="3"/>
+        <v>2.0771388127533284E-2</v>
+      </c>
+      <c r="W17" s="22">
+        <f t="shared" si="3"/>
+        <v>1.0665488114256716E-2</v>
+      </c>
+      <c r="X17" s="22">
+        <f t="shared" si="3"/>
+        <v>1.4537871220348917E-2</v>
+      </c>
+      <c r="Y17" s="22">
+        <f t="shared" si="3"/>
+        <v>5.7660407640232128E-3</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="3"/>
+        <v>7.2704556570117179E-3</v>
+      </c>
+      <c r="AA17" s="22">
+        <f t="shared" si="3"/>
+        <v>7.5828950244870158E-3</v>
+      </c>
+      <c r="AB17" s="22">
+        <f t="shared" si="3"/>
+        <v>6.6651700169661175E-3</v>
+      </c>
+      <c r="AC17" s="22">
+        <f t="shared" si="3"/>
+        <v>3.3016063157283171E-3</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" si="3"/>
+        <v>1.2492297038510167E-3</v>
+      </c>
+      <c r="AE17" s="22">
+        <f t="shared" si="3"/>
+        <v>4.6827190623214832E-3</v>
+      </c>
+      <c r="AF17" s="22">
+        <f t="shared" si="3"/>
+        <v>3.5169162157248843E-3</v>
+      </c>
+      <c r="AG17" s="22">
+        <f t="shared" si="3"/>
+        <v>7.5801943625228296E-4</v>
+      </c>
+      <c r="AH17" s="22">
+        <f t="shared" ref="AH17:AI17" si="6">ABS(AH11-$B11)</f>
+        <v>4.790364093593194E-4</v>
+      </c>
+      <c r="AI17" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0319872485794815E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="5"/>
+        <v>0.12342155927399229</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8393383343822723E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.3127113210117715E-2</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="3"/>
+        <v>2.5765666363291723E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="3"/>
+        <v>0.1431959001568493</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="3"/>
+        <v>2.3676879074477269E-2</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="3"/>
+        <v>1.6980688295417268E-2</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.2410317948442791E-3</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="3"/>
+        <v>2.6952453649273234E-4</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.4245924536009276E-2</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8231644236616291E-2</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="3"/>
+        <v>4.6876940182644267E-2</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="3"/>
+        <v>5.2592723146077269E-2</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="3"/>
+        <v>5.5868822157675274E-2</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="3"/>
+        <v>7.5094898456720266E-2</v>
+      </c>
+      <c r="S18" s="22">
+        <f t="shared" si="3"/>
+        <v>7.001060663553127E-2</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8212119713704278E-2</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="3"/>
+        <v>6.9655470180769286E-2</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="3"/>
+        <v>0.18022182274750925</v>
+      </c>
+      <c r="W18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.7989162288227241E-3</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="3"/>
+        <v>2.6466524654728735E-2</v>
+      </c>
+      <c r="Y18" s="22">
+        <f t="shared" si="3"/>
+        <v>2.4880775577422271E-2</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="3"/>
+        <v>1.6074444496514267E-2</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" si="3"/>
+        <v>1.4245531125927274E-2</v>
+      </c>
+      <c r="AB18" s="22">
+        <f t="shared" si="3"/>
+        <v>1.2621029704531272E-2</v>
+      </c>
+      <c r="AC18" s="22">
+        <f t="shared" si="3"/>
+        <v>7.5469778394871012E-4</v>
+      </c>
+      <c r="AD18" s="22">
+        <f t="shared" si="3"/>
+        <v>8.8718341666962908E-3</v>
+      </c>
+      <c r="AE18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.6695233632795282E-2</v>
+      </c>
+      <c r="AF18" s="22">
+        <f t="shared" si="3"/>
+        <v>1.9244366619867281E-2</v>
+      </c>
+      <c r="AG18" s="22">
+        <f t="shared" si="3"/>
+        <v>7.1052207901872722E-3</v>
+      </c>
+      <c r="AH18" s="22">
+        <f t="shared" ref="AH18:AI18" si="7">ABS(AH12-$B12)</f>
+        <v>4.5983317145075281E-2</v>
+      </c>
+      <c r="AI18" s="22">
+        <f t="shared" si="7"/>
+        <v>8.3106791644272648E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="5"/>
+        <v>0.17224567636480767</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.043073374699266E-2</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5697003880697669E-2</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="3"/>
+        <v>2.3058450727523661E-2</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="3"/>
+        <v>8.7268412876536638E-3</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.6710114509998653E-2</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.7400983406814674E-2</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.8958397238056673E-2</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.939041621112067E-2</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="3"/>
+        <v>4.769308445057166E-2</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="3"/>
+        <v>5.0961374605070664E-2</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="3"/>
+        <v>5.8050517280813674E-2</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="3"/>
+        <v>6.2737459310828664E-2</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="3"/>
+        <v>6.542386050033866E-2</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.6139683143398836E-2</v>
+      </c>
+      <c r="S19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.4164133967453363E-3</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="3"/>
+        <v>4.6651243030436662E-3</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="3"/>
+        <v>2.5579909543134438E-4</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="3"/>
+        <v>5.3711111085953667E-2</v>
+      </c>
+      <c r="W19" s="22">
+        <f t="shared" si="3"/>
+        <v>3.6108535319160445E-2</v>
+      </c>
+      <c r="X19" s="22">
+        <f t="shared" si="3"/>
+        <v>4.107324379911434E-2</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.3705132775378243E-2</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.8398907241502241E-2</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.9373718068025042E-2</v>
+      </c>
+      <c r="AB19" s="22">
+        <f t="shared" si="3"/>
+        <v>2.0239577325629143E-2</v>
+      </c>
+      <c r="AC19" s="22">
+        <f t="shared" si="3"/>
+        <v>1.3310830147996583E-3</v>
+      </c>
+      <c r="AD19" s="22">
+        <f t="shared" si="3"/>
+        <v>8.1723383877236599E-3</v>
+      </c>
+      <c r="AE19" s="22">
+        <f t="shared" si="3"/>
+        <v>2.7945500941631674E-2</v>
+      </c>
+      <c r="AF19" s="22">
+        <f t="shared" si="3"/>
+        <v>9.1915886632106675E-3</v>
+      </c>
+      <c r="AG19" s="22">
+        <f t="shared" si="3"/>
+        <v>9.8946310261666115E-4</v>
+      </c>
+      <c r="AH19" s="22">
+        <f t="shared" ref="AH19:AI19" si="8">ABS(AH13-$B13)</f>
+        <v>3.6420345852646585E-3</v>
+      </c>
+      <c r="AI19" s="22">
+        <f t="shared" si="8"/>
+        <v>8.3909660816436638E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.15052544579935434</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1289496817193642E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="5"/>
+        <v>6.0232266834796266E-3</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.3382200230253605E-3</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.3191491803529354E-2</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="5"/>
+        <v>6.3415864117503662E-3</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="5"/>
+        <v>5.7790147895903643E-3</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="5"/>
+        <v>4.5274020657063707E-3</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="5"/>
+        <v>4.184216677021374E-3</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.5088445952622639E-2</v>
+      </c>
+      <c r="N20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6971302489378642E-2</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="5"/>
+        <v>2.085651383264063E-2</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="5"/>
+        <v>2.3286205563272641E-2</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="5"/>
+        <v>2.4632258658722636E-2</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="5"/>
+        <v>3.1915495772595642E-2</v>
+      </c>
+      <c r="S20" s="22">
+        <f t="shared" si="5"/>
+        <v>3.008550536548163E-2</v>
+      </c>
+      <c r="T20" s="22">
+        <f t="shared" si="3"/>
+        <v>2.9422372655786636E-2</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="3"/>
+        <v>2.9955227598506634E-2</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5635489827766358E-3</v>
+      </c>
+      <c r="W20" s="22">
+        <f t="shared" si="3"/>
+        <v>5.3993638421655638E-2</v>
+      </c>
+      <c r="X20" s="22">
+        <f t="shared" si="3"/>
+        <v>6.1165403599372933E-2</v>
+      </c>
+      <c r="Y20" s="22">
+        <f t="shared" si="3"/>
+        <v>3.3972852693910635E-2</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8608365425843338E-2</v>
+      </c>
+      <c r="AA20" s="22">
+        <f t="shared" si="3"/>
+        <v>3.9572511040886937E-2</v>
+      </c>
+      <c r="AB20" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8840614201962539E-2</v>
+      </c>
+      <c r="AC20" s="22">
+        <f t="shared" si="3"/>
+        <v>3.2354920478959631E-2</v>
+      </c>
+      <c r="AD20" s="22">
+        <f t="shared" si="3"/>
+        <v>2.6370633094858639E-2</v>
+      </c>
+      <c r="AE20" s="22">
+        <f t="shared" si="3"/>
+        <v>9.1581295183186251E-3</v>
+      </c>
+      <c r="AF20" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5627480654902631E-2</v>
+      </c>
+      <c r="AG20" s="22">
+        <f t="shared" si="3"/>
+        <v>2.341293409624863E-2</v>
+      </c>
+      <c r="AH20" s="22">
+        <f t="shared" ref="AH20:AI20" si="9">ABS(AH14-$B14)</f>
+        <v>2.0466950918916635E-2</v>
+      </c>
+      <c r="AI20" s="22">
+        <f t="shared" si="9"/>
+        <v>2.404477043824664E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="22">
+        <f>SUMSQ(D16:D20)</f>
+        <v>0.1373838395700932</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" ref="E21:AI21" si="10">SUMSQ(E16:E20)</f>
+        <v>7.3195909423244096E-2</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="10"/>
+        <v>7.1162768739100352E-2</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="10"/>
+        <v>6.8785537790541182E-2</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="10"/>
+        <v>9.2815572146811492E-2</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="10"/>
+        <v>7.0347847134284047E-2</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="10"/>
+        <v>6.987997339917465E-2</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="10"/>
+        <v>6.9174120736440081E-2</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="10"/>
+        <v>6.9048127348857458E-2</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="10"/>
+        <v>5.0518703226683122E-2</v>
+      </c>
+      <c r="N21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.9680914331163756E-2</v>
+      </c>
+      <c r="O21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.8253117336787527E-2</v>
+      </c>
+      <c r="P21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.7566412745373182E-2</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.7257120921112963E-2</v>
+      </c>
+      <c r="R21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.0176693588579393E-2</v>
+      </c>
+      <c r="S21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.0600694617827941E-2</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.0883606322451013E-2</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.0649815447125939E-2</v>
+      </c>
+      <c r="V21" s="22">
+        <f t="shared" si="10"/>
+        <v>9.1765920226736547E-2</v>
+      </c>
+      <c r="W21" s="22">
+        <f t="shared" si="10"/>
+        <v>1.8053896033487601E-2</v>
+      </c>
+      <c r="X21" s="22">
+        <f t="shared" si="10"/>
+        <v>1.3982905560620101E-2</v>
+      </c>
+      <c r="Y21" s="22">
+        <f t="shared" si="10"/>
+        <v>2.4804433990156475E-3</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="10"/>
+        <v>2.1510913050866508E-3</v>
+      </c>
+      <c r="AA21" s="22">
+        <f t="shared" si="10"/>
+        <v>2.2021511046384128E-3</v>
+      </c>
+      <c r="AB21" s="22">
+        <f t="shared" si="10"/>
+        <v>2.1386669036109864E-3</v>
+      </c>
+      <c r="AC21" s="22">
+        <f t="shared" si="10"/>
+        <v>2.1232238285340274E-3</v>
+      </c>
+      <c r="AD21" s="22">
+        <f t="shared" si="10"/>
+        <v>9.8844400138255639E-4</v>
+      </c>
+      <c r="AE21" s="22">
+        <f t="shared" si="10"/>
+        <v>4.464663370517717E-3</v>
+      </c>
+      <c r="AF21" s="22">
+        <f t="shared" si="10"/>
+        <v>6.615467246483292E-3</v>
+      </c>
+      <c r="AG21" s="22">
+        <f t="shared" si="10"/>
+        <v>2.7615185443914986E-3</v>
+      </c>
+      <c r="AH21" s="22">
+        <f t="shared" si="10"/>
+        <v>3.6281032990767808E-3</v>
+      </c>
+      <c r="AI21" s="22">
+        <f t="shared" si="10"/>
+        <v>1.1844380795155017E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="A16:XFD16">
+    <cfRule type="top10" dxfId="13" priority="4" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:XFD17">
+    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:XFD18">
+    <cfRule type="top10" dxfId="11" priority="5" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:XFD21">
+    <cfRule type="top10" dxfId="10" priority="7" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:XFD19">
+    <cfRule type="top10" dxfId="9" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="8" priority="2" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:XFD20">
+    <cfRule type="top10" dxfId="7" priority="6" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>